--- a/은행/은행 순서도.xlsx
+++ b/은행/은행 순서도.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\은행\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F3FD05-616E-483F-8694-A80BDDF19AF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="18315" windowHeight="8520"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
   <si>
     <t>계좌이체</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지폐투입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입금 내역 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,38 +179,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>하버튼(대출사기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하버튼(송금안내)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중(현금세기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>진행중(3단계)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하버튼(대출사기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하버튼(송금안내)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중(현금세기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중(3단계)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>매체투입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>진행중(매체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지폐투입(위아래버튼)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,7 +252,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +307,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -320,7 +328,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -355,6 +363,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -366,6 +377,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -414,7 +428,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,9 +461,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,6 +513,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -657,11 +705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -683,10 +731,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>2</v>
@@ -694,101 +742,101 @@
     </row>
     <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>32</v>
+        <v>47</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -797,39 +845,39 @@
         <v>8</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>29</v>
+      <c r="F8" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
@@ -837,19 +885,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>19</v>
+      <c r="D9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
@@ -857,64 +905,64 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>19</v>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>35</v>
+      <c r="D11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>10</v>
@@ -925,34 +973,34 @@
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>15</v>
+      <c r="E13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>20</v>
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>12</v>
@@ -971,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -980,10 +1028,10 @@
     </row>
     <row r="17" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -992,7 +1040,7 @@
     </row>
     <row r="18" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
@@ -1004,7 +1052,7 @@
     </row>
     <row r="19" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
@@ -1016,7 +1064,7 @@
     </row>
     <row r="20" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1040,7 +1088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1053,7 +1101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/은행/은행 순서도.xlsx
+++ b/은행/은행 순서도.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\은행\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F3FD05-616E-483F-8694-A80BDDF19AF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CCF804-58DC-446A-B832-2CF322E2062D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
   <si>
     <t>계좌이체</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +205,42 @@
   <si>
     <t>지폐투입(위아래버튼)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN_Main01</t>
+  </si>
+  <si>
+    <t>PN_IsCard</t>
+  </si>
+  <si>
+    <t>PN_BankTransform</t>
+  </si>
+  <si>
+    <t>PN_HowMuch</t>
+  </si>
+  <si>
+    <t>PN_VoiceFishing</t>
+  </si>
+  <si>
+    <t>PN_Fraud</t>
+  </si>
+  <si>
+    <t>PN_ThrowCard</t>
+  </si>
+  <si>
+    <t>PN_ReadCard</t>
+  </si>
+  <si>
+    <t>PN_AccountTrasferCheck</t>
+  </si>
+  <si>
+    <t>PN_nobookCheck</t>
+  </si>
+  <si>
+    <t>PN_Withdraw_fast</t>
+  </si>
+  <si>
+    <t>PN_Withdraw_moneyCheck</t>
   </si>
 </sst>
 </file>
@@ -706,379 +742,585 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="29.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.75" customWidth="1"/>
+    <col min="3" max="3" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.75" customWidth="1"/>
+    <col min="5" max="5" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.875" customWidth="1"/>
+    <col min="7" max="7" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.875" customWidth="1"/>
+    <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.5" customWidth="1"/>
+    <col min="11" max="11" width="25.625" customWidth="1"/>
+    <col min="12" max="12" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="H2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="H3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>21</v>
+      <c r="B4" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="H4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="F5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="H5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="J5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="L5" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="F6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="H6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="J6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="L6" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="J7" s="11"/>
+      <c r="K7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="2"/>
+      <c r="K8" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="L8" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="L9" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="J10" s="2"/>
+      <c r="K10" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="L10" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="H11" s="11"/>
+      <c r="I11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="J11" s="12"/>
+      <c r="K11" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="H12" s="2"/>
+      <c r="I12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="J12" s="11"/>
+      <c r="K12" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="H13" s="2"/>
+      <c r="I13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="J13" s="12"/>
+      <c r="K13" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/은행/은행 순서도.xlsx
+++ b/은행/은행 순서도.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\은행\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CCF804-58DC-446A-B832-2CF322E2062D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB957A5-F5D6-432E-9709-A3E8245CB6BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="64">
   <si>
     <t>계좌이체</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +241,13 @@
   </si>
   <si>
     <t>PN_Withdraw_moneyCheck</t>
+  </si>
+  <si>
+    <t>PN_Thanks</t>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -744,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1020,7 +1027,9 @@
       <c r="E8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1160,7 +1169,9 @@
       <c r="G13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="I13" s="12" t="s">
         <v>16</v>
       </c>
@@ -1182,7 +1193,9 @@
       <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="2" t="s">
@@ -1212,11 +1225,15 @@
       <c r="I15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="K15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
@@ -1282,7 +1299,9 @@
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1296,7 +1315,9 @@
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>

--- a/은행/은행 순서도.xlsx
+++ b/은행/은행 순서도.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\은행\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB957A5-F5D6-432E-9709-A3E8245CB6BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8B1B73-5B66-45F6-8227-302379E7E439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="72">
   <si>
     <t>계좌이체</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,15 +213,9 @@
     <t>PN_IsCard</t>
   </si>
   <si>
-    <t>PN_BankTransform</t>
-  </si>
-  <si>
     <t>PN_HowMuch</t>
   </si>
   <si>
-    <t>PN_VoiceFishing</t>
-  </si>
-  <si>
     <t>PN_Fraud</t>
   </si>
   <si>
@@ -231,9 +225,6 @@
     <t>PN_ReadCard</t>
   </si>
   <si>
-    <t>PN_AccountTrasferCheck</t>
-  </si>
-  <si>
     <t>PN_nobookCheck</t>
   </si>
   <si>
@@ -247,6 +238,50 @@
   </si>
   <si>
     <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN_Main_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN_Fraud_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN_IsCard_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN_VoiceFishing_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN_VoiceFishing_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN_IsCard_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN_ThrowCard_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN_ReadCard_06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN_BankTransform_07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN_AccountTrasferCheck_15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN_Thanks_19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -751,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -802,13 +837,13 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>
@@ -840,37 +875,37 @@
         <v>29</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
@@ -878,13 +913,13 @@
         <v>30</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>21</v>
@@ -916,37 +951,37 @@
         <v>21</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>47</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>47</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
@@ -954,7 +989,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>23</v>
@@ -964,25 +999,25 @@
         <v>48</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
@@ -990,7 +1025,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>32</v>
@@ -1018,7 +1053,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>33</v>
@@ -1028,7 +1063,7 @@
         <v>49</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>6</v>
@@ -1042,7 +1077,7 @@
         <v>28</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
@@ -1070,7 +1105,7 @@
         <v>18</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
@@ -1098,7 +1133,7 @@
         <v>18</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
@@ -1170,7 +1205,7 @@
         <v>9</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>16</v>
@@ -1194,7 +1229,7 @@
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1216,7 +1251,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1226,13 +1261,13 @@
         <v>9</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
@@ -1240,7 +1275,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>46</v>
@@ -1300,7 +1335,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1316,7 +1351,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>

--- a/은행/은행 순서도.xlsx
+++ b/은행/은행 순서도.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Documents\GitHub\Test\은행\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8B1B73-5B66-45F6-8227-302379E7E439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="86">
   <si>
     <t>계좌이체</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,35 +46,252 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>진행중(매체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용감사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송금내용확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중(현금세기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송금내용 최종확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금 내역 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중(카드반환)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔액조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래내역 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래내역 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액 확인(빠른거래)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중(현금반환)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌우버튼(메인)</t>
+  </si>
+  <si>
+    <t>좌우버튼(매체)</t>
+  </si>
+  <si>
+    <t>좌우버튼(이체)</t>
+  </si>
+  <si>
+    <t>우버튼(송금)</t>
+  </si>
+  <si>
+    <t>우버튼(거래)</t>
+  </si>
+  <si>
+    <t>우버튼(조회내역)</t>
+  </si>
+  <si>
+    <t>우버튼(명세표)</t>
+  </si>
+  <si>
+    <t>우버튼(거래기간)</t>
+  </si>
+  <si>
+    <t>좌우버튼(금액)</t>
+  </si>
+  <si>
+    <t>확인/취소(불법카드)</t>
+  </si>
+  <si>
+    <t>확인/취소(보이스피싱)</t>
+  </si>
+  <si>
+    <t>매체투입</t>
+  </si>
+  <si>
+    <t>키패드(계좌번호)</t>
+  </si>
+  <si>
+    <t>키패드(실명번호)</t>
+  </si>
+  <si>
+    <t>키패드(비밀번호)</t>
+  </si>
+  <si>
+    <t>키패드(금액)</t>
+  </si>
+  <si>
+    <t>키패드(송금액)</t>
+  </si>
+  <si>
+    <t>진행중(3단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중(3단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명세표 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용감사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인/취소(보이스피싱)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키패드(전화번호)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하버튼(대출사기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하버튼(송금안내)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중(현금세기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중(3단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매체투입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중(매체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지폐투입(위아래버튼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN_Main01</t>
+  </si>
+  <si>
+    <t>PN_IsCard</t>
+  </si>
+  <si>
+    <t>PN_HowMuch</t>
+  </si>
+  <si>
+    <t>PN_Fraud</t>
+  </si>
+  <si>
+    <t>PN_ThrowCard</t>
+  </si>
+  <si>
+    <t>PN_ReadCard</t>
+  </si>
+  <si>
+    <t>PN_nobookCheck</t>
+  </si>
+  <si>
+    <t>PN_Withdraw_fast</t>
+  </si>
+  <si>
+    <t>PN_Withdraw_moneyCheck</t>
+  </si>
+  <si>
+    <t>PN_Thanks</t>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN_Main_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN_Fraud_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN_IsCard_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN_VoiceFishing_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN_VoiceFishing_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN_IsCard_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN_ThrowCard_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN_ReadCard_06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN_BankTransform_07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN_AccountTrasferCheck_15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN_Thanks_19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>무통장송금</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>진행중(매체)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용감사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>송금내용확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중(현금세기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>송금내용 최종확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입금 내역 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중(카드반환)</t>
+    <t>출금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무통장송금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌이체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -88,208 +299,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>거래내역 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래내역 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금액 확인(빠른거래)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중(현금반환)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좌우버튼(메인)</t>
-  </si>
-  <si>
-    <t>좌우버튼(매체)</t>
-  </si>
-  <si>
-    <t>좌우버튼(이체)</t>
-  </si>
-  <si>
-    <t>우버튼(송금)</t>
-  </si>
-  <si>
-    <t>우버튼(거래)</t>
-  </si>
-  <si>
-    <t>우버튼(조회내역)</t>
-  </si>
-  <si>
-    <t>우버튼(명세표)</t>
-  </si>
-  <si>
-    <t>우버튼(거래기간)</t>
-  </si>
-  <si>
-    <t>좌우버튼(금액)</t>
-  </si>
-  <si>
-    <t>확인/취소(불법카드)</t>
-  </si>
-  <si>
-    <t>확인/취소(보이스피싱)</t>
-  </si>
-  <si>
-    <t>매체투입</t>
-  </si>
-  <si>
-    <t>키패드(계좌번호)</t>
-  </si>
-  <si>
-    <t>키패드(실명번호)</t>
-  </si>
-  <si>
-    <t>키패드(비밀번호)</t>
-  </si>
-  <si>
-    <t>키패드(금액)</t>
-  </si>
-  <si>
-    <t>키패드(송금액)</t>
-  </si>
-  <si>
-    <t>진행중(3단계)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중(3단계)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명세표 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용감사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인/취소(보이스피싱)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>키패드(전화번호)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하버튼(대출사기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하버튼(송금안내)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중(현금세기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중(3단계)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매체투입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중(매체)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지폐투입(위아래버튼)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PN_Main01</t>
-  </si>
-  <si>
-    <t>PN_IsCard</t>
-  </si>
-  <si>
-    <t>PN_HowMuch</t>
-  </si>
-  <si>
-    <t>PN_Fraud</t>
-  </si>
-  <si>
-    <t>PN_ThrowCard</t>
-  </si>
-  <si>
-    <t>PN_ReadCard</t>
-  </si>
-  <si>
-    <t>PN_nobookCheck</t>
-  </si>
-  <si>
-    <t>PN_Withdraw_fast</t>
-  </si>
-  <si>
-    <t>PN_Withdraw_moneyCheck</t>
-  </si>
-  <si>
-    <t>PN_Thanks</t>
-  </si>
-  <si>
-    <t>\</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PN_Main_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PN_Fraud_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PN_IsCard_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PN_VoiceFishing_04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PN_VoiceFishing_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PN_IsCard_04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PN_ThrowCard_05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PN_ReadCard_06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PN_BankTransform_07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PN_AccountTrasferCheck_15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PN_Thanks_19</t>
+    <t>거래내역조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOBANKBOOK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPOSIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BALANCECHECK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DETAILDEAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WITHDRAW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통장정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOKARRANGE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +374,14 @@
     <font>
       <sz val="24"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -406,7 +464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -444,6 +502,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -506,7 +567,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -539,26 +600,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -591,23 +635,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -783,18 +810,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="3" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.75" customWidth="1"/>
     <col min="5" max="5" width="26.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.875" customWidth="1"/>
@@ -812,7 +839,7 @@
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="6" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6" t="s">
@@ -820,11 +847,11 @@
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6" t="s">
@@ -834,201 +861,201 @@
     </row>
     <row r="2" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="2" t="s">
@@ -1036,11 +1063,11 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="2" t="s">
@@ -1050,20 +1077,20 @@
     </row>
     <row r="8" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>6</v>
@@ -1074,10 +1101,10 @@
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
@@ -1086,26 +1113,26 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
@@ -1118,7 +1145,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="2" t="s">
@@ -1130,19 +1157,19 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
@@ -1150,37 +1177,37 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="2" t="s">
@@ -1190,11 +1217,11 @@
     </row>
     <row r="13" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2" t="s">
@@ -1202,72 +1229,72 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
@@ -1275,10 +1302,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="4"/>
@@ -1292,11 +1319,11 @@
     </row>
     <row r="17" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="4"/>
@@ -1310,7 +1337,7 @@
     </row>
     <row r="18" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="2" t="s">
@@ -1328,14 +1355,14 @@
     </row>
     <row r="19" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1348,10 +1375,10 @@
     </row>
     <row r="20" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1386,23 +1413,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
